--- a/src/main/resources/resource/MapResource.xlsx
+++ b/src/main/resources/resource/MapResource.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEC3394B-5B35-47B7-944A-2438F1E504CC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80DD4E74-5D5A-4F86-A753-74593E555EDA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3045" yWindow="1050" windowWidth="13050" windowHeight="10365" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4395" yWindow="915" windowWidth="13050" windowHeight="10365" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,11 +30,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0 0 0 ,0 0 0, 0 1 0</t>
+    <t>0 0 0 0 0 0 0 0 0 0,0 0 0 0 1 0 0 0 0 0,0 1 0 0 0 0 0 0 0 0,0 0 0 0 0 0 0 0 0 0,0 0 1 0 0 0 0 0 0 0,0 0 0 0 0 0 0 0 0 0,0 0 0 0 0 0 0 0 0 0,0 0 0 0 0 0 0 0 0 0,0 0 0 0 1 0 0 0 0 0,0 0 0 0 0 0 1 0 0 0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1 0 0 , 0 1 0 ,0 0 0</t>
+    <t>1 0 0 0 0 0 0 0 0 0,0 0 0 1 0 0 1 0 0 0,0 1 0 0 0 0 0 0 0 0,0 0 0 0 0 0 0 0 0 0,0 0 0 0 0 0 0 0 1 0 ,0 0 0 0 0 0 0 0 0 0,0 0 0 0 0 0 0 0 0 0,0 0 0 0 0 0 0 0 0 0,0 0 0 0 0 0 0 0 0 0,0 0 0 0 0 0 0 0 0 0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -78,8 +78,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -363,10 +372,13 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="16.5" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -376,19 +388,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2">
+    <row r="2" spans="1:2" s="1" customFormat="1" ht="135.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3">
+    <row r="3" spans="1:2" ht="123.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
     </row>

--- a/src/main/resources/resource/MapResource.xlsx
+++ b/src/main/resources/resource/MapResource.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80DD4E74-5D5A-4F86-A753-74593E555EDA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B14CC983-22EF-4299-B4A8-2B1E52AD1848}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4395" yWindow="915" windowWidth="13050" windowHeight="10365" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6390" yWindow="1110" windowWidth="13050" windowHeight="10365" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>mapId</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -35,6 +35,14 @@
   </si>
   <si>
     <t>1 0 0 0 0 0 0 0 0 0,0 0 0 1 0 0 1 0 0 0,0 1 0 0 0 0 0 0 0 0,0 0 0 0 0 0 0 0 0 0,0 0 0 0 0 0 0 0 1 0 ,0 0 0 0 0 0 0 0 0 0,0 0 0 0 0 0 0 0 0 0,0 0 0 0 0 0 0 0 0 0,0 0 0 0 0 0 0 0 0 0,0 0 0 0 0 0 0 0 0 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Integer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -78,7 +86,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -87,7 +95,13 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -369,10 +383,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -380,27 +394,36 @@
     <col min="2" max="2" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="1" customFormat="1" ht="135.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
+    <row r="2" spans="1:6" s="1" customFormat="1" ht="135.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="5"/>
+    </row>
+    <row r="3" spans="1:6" ht="123.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="123.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
+    <row r="4" spans="1:6" ht="142.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
     </row>

--- a/src/main/resources/resource/MapResource.xlsx
+++ b/src/main/resources/resource/MapResource.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B14CC983-22EF-4299-B4A8-2B1E52AD1848}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2872B421-8463-4973-8C63-26A79A53F6C1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6390" yWindow="1110" windowWidth="13050" windowHeight="10365" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,10 +22,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t>mapId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>context</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -43,6 +39,10 @@
   </si>
   <si>
     <t>String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -386,7 +386,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -396,18 +396,18 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" ht="135.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
       </c>
       <c r="F2" s="5"/>
     </row>
@@ -416,7 +416,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="142.5" x14ac:dyDescent="0.2">
@@ -424,7 +424,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/resource/MapResource.xlsx
+++ b/src/main/resources/resource/MapResource.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2872B421-8463-4973-8C63-26A79A53F6C1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A49609EC-D200-49EF-8A97-E10CD668923E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6390" yWindow="1110" windowWidth="13050" windowHeight="10365" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>context</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -43,6 +43,18 @@
   </si>
   <si>
     <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>initY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>initX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Integer</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -385,8 +397,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -399,6 +411,12 @@
         <v>5</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>0</v>
       </c>
     </row>
@@ -407,6 +425,12 @@
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="5"/>
@@ -415,15 +439,27 @@
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="1">
         <v>1</v>
       </c>
+      <c r="C3" s="4">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" ht="142.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="270.75" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>2</v>
       </c>
     </row>

--- a/src/main/resources/resource/MapResource.xlsx
+++ b/src/main/resources/resource/MapResource.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B14CC983-22EF-4299-B4A8-2B1E52AD1848}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D85013CB-59EB-414A-B69E-43C9BCED0C7E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6390" yWindow="1110" windowWidth="13050" windowHeight="10365" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -386,7 +386,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/src/main/resources/resource/MapResource.xlsx
+++ b/src/main/resources/resource/MapResource.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D85013CB-59EB-414A-B69E-43C9BCED0C7E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A49609EC-D200-49EF-8A97-E10CD668923E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6390" yWindow="1110" windowWidth="13050" windowHeight="10365" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,11 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>mapId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>context</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -43,6 +39,22 @@
   </si>
   <si>
     <t>String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>initY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>initX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Integer</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -385,8 +397,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -396,18 +408,30 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" ht="135.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
       </c>
       <c r="F2" s="5"/>
     </row>
@@ -415,16 +439,28 @@
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>2</v>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="142.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="270.75" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>3</v>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/resource/MapResource.xlsx
+++ b/src/main/resources/resource/MapResource.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A49609EC-D200-49EF-8A97-E10CD668923E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E3AB82F-87ED-4F8E-8749-3AE326E93132}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1710" yWindow="945" windowWidth="13050" windowHeight="10365" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>context</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -55,6 +55,22 @@
   </si>
   <si>
     <t>Integer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地图唯一id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始x坐标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始y坐标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地图内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -98,7 +114,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -111,9 +127,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -395,71 +408,85 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="16.5" customWidth="1"/>
+    <col min="4" max="4" width="17.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" ht="135.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+    <row r="3" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="5"/>
     </row>
-    <row r="3" spans="1:6" ht="123.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
+    <row r="4" spans="1:4" ht="144" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
         <v>1</v>
-      </c>
-      <c r="B3" s="1">
-        <v>1</v>
-      </c>
-      <c r="C3" s="4">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="270.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
-        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>1</v>
       </c>
       <c r="C4" s="4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="126.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
         <v>2</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="4">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>2</v>
       </c>
     </row>
